--- a/data/Wine_grape_disease.xlsx
+++ b/data/Wine_grape_disease.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/Ph.D/Wine_grape_Disease/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Wine-Grape-Disease/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D77957-EB73-B944-8545-DDC46CC73A7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECE1EA-F7A7-6642-8373-719C92739C1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="1600" windowWidth="21340" windowHeight="13100" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
+    <workbookView xWindow="26200" yWindow="460" windowWidth="28420" windowHeight="19900" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="314">
   <si>
     <t>Genus</t>
   </si>
@@ -466,27 +466,18 @@
     <t xml:space="preserve">Sources </t>
   </si>
   <si>
-    <t xml:space="preserve">35,000 acres of vineyards in southern california, 92 million annually in California, 104 million annually in California </t>
-  </si>
-  <si>
     <t>(Galvez et al. 2010, American Phytopathological Soceity), (Alston et al. 2013, Australian Journal of Agricultural and Resource Economics, 59, pp. 95–115), (Tumber K, Alston J, Fuller K. 2014. Calif Agr 68(1):20-29.)</t>
   </si>
   <si>
     <t xml:space="preserve">Americas/Italy (olives)/Iran/Taiwan </t>
   </si>
   <si>
-    <t>No impact on crop yield unless fruit producing nodes are close to the attacked tips</t>
-  </si>
-  <si>
     <t>https://ecommons.cornell.edu/bitstream/handle/1813/43099/grape-cane-girdler-FS-NYSIPM.pdf?sequence=1</t>
   </si>
   <si>
     <t>Jude T. Boucher, Douglas G. Pfeiffer; Influence of Japanese Beetle (Coleoptera: Scarabaeidae) Foliar Feeding on ‘Seyval Blanc’ Grapevines in Virginia, Journal of Economic Entomology, Volume 82, Issue 1, 1 February 1989, Pages 220–225, https://doi.org/10.1093/jee/82.1.220</t>
   </si>
   <si>
-    <t xml:space="preserve">The natural infestation did not result in any significant reduction in berry quality, yield or vine growth however, Berry quality affected if beetles fed intensely after veraison </t>
-  </si>
-  <si>
     <t>Planococcus</t>
   </si>
   <si>
@@ -511,9 +502,6 @@
     <t>Europe and North and South Africa, Middle East, Argentina and Mexico , California</t>
   </si>
   <si>
-    <t xml:space="preserve">A study in Washington showed the threshold of economic loss was 1-3 adults per plant per season. An index was developed for estimating root injury caused by larval feeding. The larvae fed first on the phloem tissue, girdling the roots, but the xylem was left intact, except in cases of severe injury. Vigour and fruit yield over a 3-year period were not significantly affected by root injury. In Quebec, O. sulcatus had the highest abundance of any pests tested over the course of a 4 year period. </t>
-  </si>
-  <si>
     <t>Cone WW, 1968. Black vine weevil larval damage to concord grape roots at different population densities. Journal of Economic Entomology, 61(5):1220-1224; Bouchard P, Lesage L, Goulet H, Bostanian NJ, Vincent C, Zmudzinska A, Lasnier J, 2005. Weevil (Coleoptera: Curculionoidea) diversity and abundance in two Quebec vineyards. Annals of the Entomological Society of America, 98(4):565-574. http://www.esa.catchword.org</t>
   </si>
   <si>
@@ -521,9 +509,6 @@
   </si>
   <si>
     <t>Raymond J. Folwell, Vito Cifarelli &amp; Herb Hinman (2001) Economic Consequences of Phylloxera in Cold Climate Wine Grape Production Areas of Eastern Washington, Small Fruits Review, 1:4, 3-15,DOI: 10.1300/J301v01n04_02</t>
-  </si>
-  <si>
-    <t>$4000 per hectare in the US</t>
   </si>
   <si>
     <t>Grapevine Bunch Rots: Impacts on Wine Composition, Quality, and Potential Procedures for the Removal of Wine Faults Christopher C. Steel, John W. Blackman, and Leigh M. Schmidtke
@@ -572,13 +557,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">observed harvest losses of &gt;70% in South Africa, 25,000 hectares in spain </t>
-  </si>
-  <si>
     <t>Lopez MM; Gracia M; Sampayo M, 1981. Studies on Xanthomonas ampelina Panagopoulos in Spain. Proceedings of the Fifth Congress of the Mediterranean Phytopathological Union, Patras, Greece, 21-27 September 1980. Athens, Greece: Hellenic Phytopathological Society, 56-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$30 per vine lost, $6700 in wine lost per year </t>
   </si>
   <si>
     <t>https://docplayer.net/25066854-Crown-gall-of-grape-understanding-the-disease-prevention-and-management.html</t>
@@ -629,48 +608,24 @@
     <t>https://edis.ifas.ufl.edu/pdffiles/HS/HS10000.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; 90% infection rate which led to no fruit harvest </t>
-  </si>
-  <si>
     <t>https://apsjournals.apsnet.org/doi/abs/10.1094/PD-89-1011A</t>
   </si>
   <si>
-    <t>Depends on the degree of infection (4 levels) upto $ 8113.57/ha per annum</t>
-  </si>
-  <si>
     <t>https://www.wineland.co.za/economic-impact-of-eutypa-dieback-of-grapevines/</t>
   </si>
   <si>
     <t>Mealybugs are phloem feeders. As they feed, they produce a sugary excretion (honeydew) that supports the growth of sooty mold.severe infestations have also reduced vine growth and resulted in defoliation, bunch rots and even spur and cane death.</t>
   </si>
   <si>
-    <t xml:space="preserve">causes bitter flavoring of wine produced </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mycotoxin production which can lead to severe impacts on human health </t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/doi/pdfplus/10.1021/jf400641r</t>
   </si>
   <si>
-    <t xml:space="preserve">upto $8 million for Australian wine industry. </t>
-  </si>
-  <si>
     <t>https://aic.ucdavis.edu/research1/eutypa.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">$260 million in California </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Portugal, Hungary, France, and Germany, esca is estimated to have reached incidences of 20, 11, 15, and 19%, respectively (19). In Italy, the disease is found in all vine-growing regions. In many areas, it affects 90 to 100% of vineyards </t>
-  </si>
-  <si>
     <t>https://www.burgundy-report.com/wp/wp-content/uploads/2005/09/esca_report.pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">in excess of 1.5 billion dollars per year in Europe </t>
-  </si>
-  <si>
     <t>http://www.oiv.int/public/medias/4650/trunk-diseases-oiv-2016.pdf</t>
   </si>
   <si>
@@ -681,9 +636,6 @@
   </si>
   <si>
     <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0149666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll contents are also decreased by 50% in heavily infected leaves and imply decrease of chlorophyll contents is a major source of photosynthesis ability decline. With increase of disease necrotic area in leaves, total nitrogen and phosphate contents are decreased and on the other side, total carbon, potassium, calcium and magnesium contents are increased. </t>
   </si>
   <si>
     <t xml:space="preserve">Ryu, YoungHyun. (2016). Photosynthetic Rates of ‘Campbell Early’ Organic Grape as Affected by Degree of Leaf Spot Disease Caused by Pseudocercospora vitis. Korean Journal of Organic Agriculture. 24. 773-786. 10.11625/KJOA.2016.24.4.773. </t>
@@ -1545,6 +1497,120 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>Body Size</t>
+  </si>
+  <si>
+    <t>0.25-0.35mm</t>
+  </si>
+  <si>
+    <t>1.3- 2.2 mm</t>
+  </si>
+  <si>
+    <t>2.9 to 3.3 mm. </t>
+  </si>
+  <si>
+    <t>0.404-0.620mm</t>
+  </si>
+  <si>
+    <t>0.76- 1.64 mm</t>
+  </si>
+  <si>
+    <t>0.61-1.14mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61-1.58mm </t>
+  </si>
+  <si>
+    <t>0.67-1.13mm</t>
+  </si>
+  <si>
+    <t>0.71-0.77mm</t>
+  </si>
+  <si>
+    <t>0.46 - 0.71 mm</t>
+  </si>
+  <si>
+    <t>0.55-0.59mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5mm </t>
+  </si>
+  <si>
+    <t>pest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5mm </t>
+  </si>
+  <si>
+    <t>15.0 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0mm </t>
+  </si>
+  <si>
+    <t>10.0mm</t>
+  </si>
+  <si>
+    <t>1.0 mm</t>
+  </si>
+  <si>
+    <t>0.9-3.5 um</t>
+  </si>
+  <si>
+    <t>upto 40%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10% loss in yield </t>
+  </si>
+  <si>
+    <t>17% yield loss</t>
+  </si>
+  <si>
+    <t>25% yield loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decreased by 50% </t>
+  </si>
+  <si>
+    <t>19% yield loss</t>
+  </si>
+  <si>
+    <t>10-15% yield loss</t>
+  </si>
+  <si>
+    <t>24% yield loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8% loss in yield </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 90% yield loss</t>
+  </si>
+  <si>
+    <t>15% yield loss</t>
+  </si>
+  <si>
+    <t>27% yield loss</t>
+  </si>
+  <si>
+    <t>33% yield loss</t>
+  </si>
+  <si>
+    <t>3% yield loss</t>
+  </si>
+  <si>
+    <t>0% yield loss</t>
+  </si>
+  <si>
+    <t>5% yield loss</t>
+  </si>
+  <si>
+    <t>less than 1% yield loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70% loss in South Africa, 25,000 hectares in spain </t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1753,6 +1819,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2068,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12784771-90DA-B749-9BCD-241E7235B222}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2089,9 +2157,11 @@
     <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2102,7 +2172,7 @@
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -2120,36 +2190,39 @@
         <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="K1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="356" customHeight="1">
+        <v>273</v>
+      </c>
+      <c r="P1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="356" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -2161,10 +2234,10 @@
         <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="J2">
         <v>290</v>
@@ -2179,10 +2252,10 @@
         <v>114</v>
       </c>
       <c r="O2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -2203,10 +2276,10 @@
         <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="I3" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="J3">
         <v>26</v>
@@ -2221,10 +2294,10 @@
         <v>114</v>
       </c>
       <c r="O3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -2245,7 +2318,7 @@
         <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="L4">
         <v>162</v>
@@ -2254,10 +2327,10 @@
         <v>114</v>
       </c>
       <c r="O4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="409.6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="409.6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2271,16 +2344,16 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" t="s">
         <v>106</v>
       </c>
       <c r="H5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="J5" s="17">
         <v>1190</v>
@@ -2295,15 +2368,18 @@
         <v>228</v>
       </c>
       <c r="N5" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="O5" t="s">
+        <v>275</v>
+      </c>
+      <c r="P5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="O5" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
@@ -2317,11 +2393,11 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>147</v>
+      <c r="H6" s="33" t="s">
+        <v>310</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2336,18 +2412,21 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="187">
+    <row r="7" spans="1:16" ht="187">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>91</v>
@@ -2359,10 +2438,10 @@
         <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>150</v>
+        <v>310</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J7">
         <v>461</v>
@@ -2377,33 +2456,36 @@
         <v>52</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="O7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="238">
+    <row r="8" spans="1:16" ht="238">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J8">
         <v>166</v>
@@ -2418,13 +2500,16 @@
         <v>39</v>
       </c>
       <c r="N8" s="23" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="O8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="119">
+        <v>275</v>
+      </c>
+      <c r="P8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="119">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2441,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>159</v>
+        <v>308</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J9" s="10">
         <v>200</v>
@@ -2459,13 +2544,16 @@
         <v>36</v>
       </c>
       <c r="N9" s="23" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="O9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>275</v>
+      </c>
+      <c r="P9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -2482,10 +2570,10 @@
         <v>122</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>163</v>
+        <v>311</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J10" s="10">
         <v>140</v>
@@ -2500,13 +2588,16 @@
         <v>67</v>
       </c>
       <c r="N10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O10" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="153">
+        <v>274</v>
+      </c>
+      <c r="P10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="153">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -2517,7 +2608,7 @@
         <v>97</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -2529,10 +2620,10 @@
         <v>93</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J11" s="10">
         <v>22</v>
@@ -2547,13 +2638,13 @@
         <v>19</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="O11" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="409.6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="409.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2564,7 +2655,7 @@
         <v>55</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -2576,10 +2667,10 @@
         <v>104</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J12" s="10">
         <v>764</v>
@@ -2594,13 +2685,13 @@
         <v>470</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="O12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="187">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="187">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -2611,7 +2702,7 @@
         <v>56</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -2623,10 +2714,10 @@
         <v>93</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="J13" s="10">
         <v>211</v>
@@ -2641,13 +2732,13 @@
         <v>299</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="O13" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="409.6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="409.6">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2749,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -2670,10 +2761,10 @@
         <v>93</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="J14" s="10">
         <v>67</v>
@@ -2688,13 +2779,13 @@
         <v>25</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="O14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2715,10 +2806,10 @@
         <v>111</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>171</v>
+        <v>313</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J15" s="10">
         <v>17</v>
@@ -2733,13 +2824,13 @@
         <v>7</v>
       </c>
       <c r="N15" s="26" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="O15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2760,10 +2851,10 @@
         <v>102</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>173</v>
+        <v>312</v>
       </c>
       <c r="I16" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="J16" s="10">
         <v>442</v>
@@ -2778,13 +2869,13 @@
         <v>160</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="O16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="51">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="51">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2802,10 +2893,10 @@
         <v>112</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="J17" s="10">
         <v>7338</v>
@@ -2820,13 +2911,13 @@
         <v>943</v>
       </c>
       <c r="N17" s="20" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="O17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="409.6">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="409.6">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2837,7 +2928,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
@@ -2848,7 +2939,9 @@
       <c r="G18" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="32" t="s">
+        <v>307</v>
+      </c>
       <c r="J18" s="10">
         <v>3060</v>
       </c>
@@ -2863,10 +2956,10 @@
       </c>
       <c r="N18" s="18"/>
       <c r="O18" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="127">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="127">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2877,7 +2970,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
@@ -2889,10 +2982,10 @@
         <v>114</v>
       </c>
       <c r="H19" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="J19" s="10">
         <v>4</v>
@@ -2907,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="25" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="57">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="57">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -2924,7 +3017,7 @@
         <v>38</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
@@ -2936,10 +3029,10 @@
         <v>114</v>
       </c>
       <c r="H20" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="J20" s="10">
         <v>2</v>
@@ -2954,13 +3047,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="25" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="O20" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="113">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="113">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2971,7 +3064,7 @@
         <v>92</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
         <v>29</v>
@@ -2983,10 +3076,10 @@
         <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="I21" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J21" s="10">
         <v>55</v>
@@ -3001,13 +3094,13 @@
         <v>35</v>
       </c>
       <c r="N21" s="25" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="O21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="57">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="57">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -3018,7 +3111,7 @@
         <v>39</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
         <v>29</v>
@@ -3030,10 +3123,10 @@
         <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="J22" s="10">
         <v>70</v>
@@ -3048,13 +3141,13 @@
         <v>12</v>
       </c>
       <c r="N22" s="25" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="153">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="153">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -3065,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="E23" t="s">
         <v>29</v>
@@ -3077,10 +3170,10 @@
         <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="J23" s="10">
         <v>8475</v>
@@ -3096,10 +3189,10 @@
       </c>
       <c r="N23" s="18"/>
       <c r="O23" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="393">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="393">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3110,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -3122,10 +3215,10 @@
         <v>114</v>
       </c>
       <c r="H24" t="s">
-        <v>195</v>
+        <v>297</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="J24" s="10">
         <v>202</v>
@@ -3141,10 +3234,10 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="29">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="29">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -3155,7 +3248,7 @@
         <v>71</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
         <v>29</v>
@@ -3167,10 +3260,10 @@
         <v>93</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>196</v>
+        <v>301</v>
       </c>
       <c r="I25" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="J25" s="10">
         <v>103</v>
@@ -3185,13 +3278,13 @@
         <v>63</v>
       </c>
       <c r="N25" s="25" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="34">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="34">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -3202,7 +3295,7 @@
         <v>73</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E26" t="s">
         <v>29</v>
@@ -3214,10 +3307,10 @@
         <v>93</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="I26" t="s">
-        <v>199</v>
+        <v>302</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>184</v>
       </c>
       <c r="J26" s="10">
         <v>244</v>
@@ -3232,13 +3325,13 @@
         <v>175</v>
       </c>
       <c r="N26" s="25" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="O26" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="221">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="221">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3249,7 +3342,7 @@
         <v>78</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
@@ -3261,10 +3354,10 @@
         <v>93</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="I27" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="J27" s="10">
         <v>113</v>
@@ -3279,13 +3372,13 @@
         <v>63</v>
       </c>
       <c r="N27" s="25" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="O27" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="357">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="357">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -3296,7 +3389,7 @@
         <v>68</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
@@ -3308,10 +3401,10 @@
         <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" t="s">
-        <v>188</v>
+        <v>303</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="J28" s="10">
         <v>270</v>
@@ -3327,10 +3420,10 @@
       </c>
       <c r="N28" s="18"/>
       <c r="O28" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="255">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="255">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,7 +3434,7 @@
         <v>76</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E29" t="s">
         <v>29</v>
@@ -3353,10 +3446,10 @@
         <v>93</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="I29" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="J29" s="10">
         <v>9</v>
@@ -3371,15 +3464,15 @@
         <v>4</v>
       </c>
       <c r="N29" s="25" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="155">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="155">
       <c r="A30" s="1" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>42</v>
@@ -3388,7 +3481,7 @@
         <v>125</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
         <v>41</v>
@@ -3400,10 +3493,10 @@
         <v>131</v>
       </c>
       <c r="H30" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="J30" s="10">
         <v>188</v>
@@ -3418,13 +3511,16 @@
         <v>64</v>
       </c>
       <c r="N30" s="25" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="17">
+        <v>275</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="17">
       <c r="A31" s="27" t="s">
         <v>59</v>
       </c>
@@ -3435,7 +3531,7 @@
         <v>124</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
         <v>41</v>
@@ -3447,10 +3543,10 @@
         <v>131</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J31" s="10">
         <v>227</v>
@@ -3466,10 +3562,13 @@
       </c>
       <c r="N31" s="18"/>
       <c r="O31" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="333">
+        <v>275</v>
+      </c>
+      <c r="P31" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="333">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3480,7 +3579,7 @@
         <v>123</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
         <v>41</v>
@@ -3492,10 +3591,10 @@
         <v>131</v>
       </c>
       <c r="H32" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="J32" s="10">
         <v>189</v>
@@ -3510,13 +3609,16 @@
         <v>116</v>
       </c>
       <c r="N32" s="25" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="O32" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="17">
+        <v>274</v>
+      </c>
+      <c r="P32" s="26" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="17">
       <c r="A33" s="27" t="s">
         <v>45</v>
       </c>
@@ -3527,7 +3629,7 @@
         <v>127</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
@@ -3539,10 +3641,10 @@
         <v>131</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="J33" s="10">
         <v>74</v>
@@ -3558,10 +3660,13 @@
       </c>
       <c r="N33" s="18"/>
       <c r="O33" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="409.6">
+        <v>275</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="409.6">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
@@ -3572,7 +3677,7 @@
         <v>128</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
@@ -3584,10 +3689,10 @@
         <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I34" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J34" s="10">
         <v>837</v>
@@ -3602,13 +3707,16 @@
         <v>243</v>
       </c>
       <c r="N34" s="25" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="O34" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="359">
+        <v>275</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="359">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -3619,7 +3727,7 @@
         <v>129</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
         <v>41</v>
@@ -3631,10 +3739,10 @@
         <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I35" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J35" s="10">
         <v>773</v>
@@ -3649,13 +3757,16 @@
         <v>201</v>
       </c>
       <c r="N35" s="25" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="O35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="409.6">
+        <v>275</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="409.6">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -3666,7 +3777,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
         <v>41</v>
@@ -3678,10 +3789,10 @@
         <v>131</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="J36" s="10">
         <v>4209</v>
@@ -3696,13 +3807,16 @@
         <v>1371</v>
       </c>
       <c r="N36" s="25" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="409.6">
+        <v>275</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="409.6">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -3713,7 +3827,7 @@
         <v>132</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
         <v>41</v>
@@ -3725,10 +3839,10 @@
         <v>131</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="J37" s="10">
         <v>1655</v>
@@ -3743,24 +3857,27 @@
         <v>582</v>
       </c>
       <c r="N37" s="25" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="O37" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="281">
+        <v>275</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="281">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
@@ -3771,7 +3888,9 @@
       <c r="G38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="I38" s="14"/>
       <c r="J38" s="10">
         <v>463</v>
@@ -3786,13 +3905,16 @@
         <v>108</v>
       </c>
       <c r="N38" s="25" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="O38" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="17">
+        <v>275</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="17">
       <c r="A39" s="28" t="s">
         <v>136</v>
       </c>
@@ -3803,7 +3925,7 @@
         <v>133</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
         <v>41</v>
@@ -3814,6 +3936,9 @@
       <c r="G39" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="H39" s="4">
+        <v>0.15</v>
+      </c>
       <c r="J39" s="10">
         <v>83</v>
       </c>
@@ -3828,21 +3953,24 @@
       </c>
       <c r="N39" s="18"/>
       <c r="O39" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="17">
+        <v>275</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="17">
       <c r="A40" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
@@ -3853,6 +3981,9 @@
       <c r="G40" s="5" t="s">
         <v>131</v>
       </c>
+      <c r="H40" s="2" t="s">
+        <v>297</v>
+      </c>
       <c r="J40" s="10">
         <v>301</v>
       </c>
@@ -3867,32 +3998,35 @@
       </c>
       <c r="N40" s="18"/>
       <c r="O40" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>275</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="16" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F41" t="s">
         <v>126</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="H41" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I41" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J41" s="10">
         <v>266</v>
@@ -3907,34 +4041,34 @@
         <v>140</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O41" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F42" t="s">
         <v>126</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H42" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I42" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="J42" s="10">
         <v>34</v>
@@ -3949,100 +4083,119 @@
         <v>11</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="O42" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="J43" s="10"/>
       <c r="L43" s="10"/>
       <c r="N43" s="29" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="O43" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="N44" s="30" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="O44" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E45" t="s">
         <v>29</v>
       </c>
+      <c r="H45" t="s">
+        <v>298</v>
+      </c>
       <c r="N45" s="18" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="O45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B46" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="O46" t="s">
+        <v>275</v>
+      </c>
+      <c r="P46" t="s">
         <v>288</v>
       </c>
-      <c r="N46" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="O46" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B47" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>288</v>
+        <v>272</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H47" t="s">
+        <v>299</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="O47" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="E48" s="2"/>
       <c r="N48" s="18"/>
     </row>
     <row r="49" spans="14:14">
@@ -4139,6 +4292,8 @@
     <hyperlink ref="I30" r:id="rId6" xr:uid="{8B9B6E40-3E97-F144-82E2-6843B71E9A1E}"/>
     <hyperlink ref="I37" r:id="rId7" location="references" xr:uid="{32265DFA-8D30-DB4D-88F1-91C1A413D4B1}"/>
     <hyperlink ref="I33" r:id="rId8" xr:uid="{FB907D97-2A11-7B44-8615-00F4F154E53A}"/>
+    <hyperlink ref="I28" r:id="rId9" xr:uid="{DA24553B-3155-5242-B5D7-99A6100CD409}"/>
+    <hyperlink ref="I26" r:id="rId10" xr:uid="{6C7BCB63-A467-7945-8E15-164576235B04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Wine_grape_disease.xlsx
+++ b/data/Wine_grape_disease.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Wine-Grape-Disease/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECE1EA-F7A7-6642-8373-719C92739C1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B232D9F-B14E-E940-AAD9-8FC769A8528E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26200" yWindow="460" windowWidth="28420" windowHeight="19900" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="323">
   <si>
     <t>Genus</t>
   </si>
@@ -1612,12 +1612,39 @@
   <si>
     <t xml:space="preserve">70% loss in South Africa, 25,000 hectares in spain </t>
   </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe </t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>southern Europe, the Middle East, and parts of northern Africa</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>old world</t>
+  </si>
+  <si>
+    <t>Australia or South America</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1746,6 +1773,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1768,7 +1800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1816,11 +1848,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2136,10 +2169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12784771-90DA-B749-9BCD-241E7235B222}">
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2148,20 +2181,20 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="126" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="230.33203125" customWidth="1"/>
-    <col min="9" max="9" width="255.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="68.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="230.33203125" customWidth="1"/>
+    <col min="10" max="10" width="255.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="55.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2178,40 +2211,43 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>143</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>204</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>207</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>209</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>207</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>226</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>273</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="356" customHeight="1">
+    <row r="2" spans="1:17" ht="356" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
@@ -2221,41 +2257,44 @@
       <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>211</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>170</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>290</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>150</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>162</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>114</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
@@ -2265,39 +2304,42 @@
       <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" t="s">
         <v>108</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>171</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>172</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>26</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>162</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>114</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -2307,30 +2349,33 @@
       <c r="C4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" t="s">
         <v>108</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>93</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>250</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>162</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>114</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="409.6">
+    <row r="5" spans="1:17" ht="409.6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2343,41 +2388,44 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s">
         <v>145</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>309</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="J5" s="17">
+      <c r="K5" s="17">
         <v>1190</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>228</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>1190</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>228</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="O5" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>275</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
         <v>254</v>
       </c>
@@ -2390,17 +2438,17 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -2411,17 +2459,20 @@
       <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
         <v>251</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>274</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="187">
+    <row r="7" spans="1:17" ht="187">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
@@ -2435,37 +2486,40 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G7" t="s">
         <v>120</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>310</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>461</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>52</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>461</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>52</v>
       </c>
-      <c r="N7" s="23" t="s">
+      <c r="O7" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>275</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="238">
+    <row r="8" spans="1:17" ht="238">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
@@ -2478,38 +2532,41 @@
       <c r="E8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>166</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>39</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>166</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>39</v>
       </c>
-      <c r="N8" s="23" t="s">
+      <c r="O8" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>275</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="119">
+    <row r="9" spans="1:17" ht="119">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2523,37 +2580,40 @@
         <v>9</v>
       </c>
       <c r="F9" t="s">
+        <v>315</v>
+      </c>
+      <c r="G9" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="J9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <v>200</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>36</v>
       </c>
-      <c r="L9" s="10">
+      <c r="M9" s="10">
         <v>200</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>36</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="O9" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>275</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
@@ -2567,37 +2627,40 @@
         <v>9</v>
       </c>
       <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="G10" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="J10" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <v>140</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>67</v>
       </c>
-      <c r="L10" s="10">
+      <c r="M10" s="10">
         <v>140</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>67</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>251</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>274</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="153">
+    <row r="11" spans="1:17" ht="153">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
@@ -2613,38 +2676,38 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>98</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <v>22</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>12</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>27</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>19</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="O11" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="409.6">
+    <row r="12" spans="1:17" ht="409.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -2661,37 +2724,40 @@
         <v>29</v>
       </c>
       <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="s">
         <v>103</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <v>764</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>428</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>805</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>470</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="O12" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="187">
+    <row r="13" spans="1:17" ht="187">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
@@ -2708,37 +2774,40 @@
         <v>29</v>
       </c>
       <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
         <v>107</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="J13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <v>211</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>83</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>530</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>299</v>
       </c>
-      <c r="N13" s="23" t="s">
+      <c r="O13" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="409.6">
+    <row r="14" spans="1:17" ht="409.6">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2755,37 +2824,40 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>93</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>164</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K14" s="10">
         <v>67</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>25</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>78</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>25</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="O14" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -2800,37 +2872,40 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" t="s">
         <v>110</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K15" s="10">
         <v>17</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>7</v>
       </c>
-      <c r="L15" s="10">
+      <c r="M15" s="10">
         <v>17</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>7</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="O15" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2845,37 +2920,40 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
+        <v>315</v>
+      </c>
+      <c r="G16" t="s">
         <v>101</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>167</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K16" s="10">
         <v>442</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>160</v>
       </c>
-      <c r="L16" s="10">
+      <c r="M16" s="10">
         <v>442</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>160</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="O16" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="51">
+    <row r="17" spans="1:17" ht="51">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -2890,34 +2968,37 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
+        <v>316</v>
+      </c>
+      <c r="G17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="I17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>168</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K17" s="10">
         <v>7338</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>943</v>
       </c>
-      <c r="L17" s="10">
+      <c r="M17" s="10">
         <v>7338</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>943</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="O17" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="409.6">
+    <row r="18" spans="1:17" ht="409.6">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
@@ -2934,32 +3015,35 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" t="s">
         <v>109</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="I18" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K18" s="10">
         <v>3060</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>958</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3160</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1134</v>
       </c>
-      <c r="N18" s="18"/>
-      <c r="O18" t="s">
+      <c r="O18" s="18"/>
+      <c r="P18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="127">
+    <row r="19" spans="1:17" ht="127">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2976,37 +3060,40 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" t="s">
         <v>113</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>114</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="J19" s="10">
+      <c r="K19" s="10">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="L19" s="10">
+      <c r="M19" s="10">
         <v>4</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
-      <c r="N19" s="25" t="s">
+      <c r="O19" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="57">
+    <row r="20" spans="1:17" ht="57">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
@@ -3023,37 +3110,40 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" t="s">
         <v>115</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>114</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>176</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>177</v>
       </c>
-      <c r="J20" s="10">
+      <c r="K20" s="10">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1</v>
       </c>
-      <c r="N20" s="25" t="s">
+      <c r="O20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="113">
+    <row r="21" spans="1:17" ht="113">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -3070,37 +3160,40 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G21" t="s">
         <v>94</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>305</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>178</v>
       </c>
-      <c r="J21" s="10">
+      <c r="K21" s="10">
         <v>55</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>34</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>64</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>35</v>
       </c>
-      <c r="N21" s="25" t="s">
+      <c r="O21" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="57">
+    <row r="22" spans="1:17" ht="57">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
@@ -3116,38 +3209,38 @@
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>116</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>306</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>181</v>
       </c>
-      <c r="J22" s="10">
+      <c r="K22" s="10">
         <v>70</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>12</v>
       </c>
-      <c r="L22" s="10">
+      <c r="M22" s="10">
         <v>70</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>12</v>
       </c>
-      <c r="N22" s="25" t="s">
+      <c r="O22" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="153">
+    <row r="23" spans="1:17" ht="153">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,36 +3256,36 @@
       <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>100</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>93</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>304</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J23" s="10">
+      <c r="K23" s="10">
         <v>8475</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3858</v>
       </c>
-      <c r="L23" s="10">
+      <c r="M23" s="10">
         <v>8583</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>4123</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" t="s">
+      <c r="O23" s="18"/>
+      <c r="P23" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="393">
+    <row r="24" spans="1:17" ht="393">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -3209,35 +3302,38 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G24" t="s">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>114</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>297</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>182</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K24" s="10">
         <v>202</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>69</v>
       </c>
-      <c r="L24" s="10">
+      <c r="M24" s="10">
         <v>375</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>128</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" t="s">
+      <c r="O24" s="18"/>
+      <c r="P24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="29">
+    <row r="25" spans="1:17" ht="29">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
@@ -3253,38 +3349,38 @@
       <c r="E25" t="s">
         <v>29</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>100</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>93</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="I25" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>183</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K25" s="10">
         <v>103</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>63</v>
       </c>
-      <c r="L25" s="10">
+      <c r="M25" s="10">
         <v>103</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>63</v>
       </c>
-      <c r="N25" s="25" t="s">
+      <c r="O25" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="34">
+    <row r="26" spans="1:17" ht="34">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -3300,38 +3396,38 @@
       <c r="E26" t="s">
         <v>29</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>100</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>93</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K26" s="10">
         <v>244</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>172</v>
       </c>
-      <c r="L26" s="10">
+      <c r="M26" s="10">
         <v>250</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>175</v>
       </c>
-      <c r="N26" s="25" t="s">
+      <c r="O26" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="221">
+    <row r="27" spans="1:17" ht="221">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
@@ -3348,37 +3444,40 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
+        <v>316</v>
+      </c>
+      <c r="G27" t="s">
         <v>100</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>93</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>186</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K27" s="10">
         <v>113</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>47</v>
       </c>
-      <c r="L27" s="10">
+      <c r="M27" s="10">
         <v>137</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>63</v>
       </c>
-      <c r="N27" s="25" t="s">
+      <c r="O27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="357">
+    <row r="28" spans="1:17" ht="357">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
@@ -3394,36 +3493,36 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>105</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>93</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>303</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K28" s="10">
         <v>270</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>128</v>
       </c>
-      <c r="L28" s="10">
+      <c r="M28" s="10">
         <v>333</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>147</v>
       </c>
-      <c r="N28" s="18"/>
-      <c r="O28" t="s">
+      <c r="O28" s="18"/>
+      <c r="P28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="255">
+    <row r="29" spans="1:17" ht="255">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3440,37 +3539,40 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G29" t="s">
         <v>118</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>93</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I29" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>188</v>
       </c>
-      <c r="J29" s="10">
+      <c r="K29" s="10">
         <v>9</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="L29" s="10">
+      <c r="M29" s="10">
         <v>13</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>4</v>
       </c>
-      <c r="N29" s="25" t="s">
+      <c r="O29" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="155">
+    <row r="30" spans="1:17" ht="155">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
@@ -3487,40 +3589,43 @@
         <v>41</v>
       </c>
       <c r="F30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>189</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="J30" s="10">
+      <c r="K30" s="10">
         <v>188</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>64</v>
       </c>
-      <c r="L30" s="10">
+      <c r="M30" s="10">
         <v>188</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>64</v>
       </c>
-      <c r="N30" s="25" t="s">
+      <c r="O30" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>275</v>
       </c>
-      <c r="P30" s="2" t="s">
+      <c r="Q30" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="17">
+    <row r="31" spans="1:17" ht="17">
       <c r="A31" s="27" t="s">
         <v>59</v>
       </c>
@@ -3537,38 +3642,41 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
+        <v>316</v>
+      </c>
+      <c r="G31" t="s">
         <v>100</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="I31" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="J31" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J31" s="10">
+      <c r="K31" s="10">
         <v>227</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>47</v>
       </c>
-      <c r="L31" s="10">
+      <c r="M31" s="10">
         <v>227</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>47</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" t="s">
+      <c r="O31" s="18"/>
+      <c r="P31" t="s">
         <v>275</v>
       </c>
-      <c r="P31" s="26" t="s">
+      <c r="Q31" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="333">
+    <row r="32" spans="1:17" ht="333">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -3585,40 +3693,43 @@
         <v>41</v>
       </c>
       <c r="F32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>197</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="J32" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="J32" s="10">
+      <c r="K32" s="10">
         <v>189</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>116</v>
       </c>
-      <c r="L32" s="10">
+      <c r="M32" s="10">
         <v>189</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>116</v>
       </c>
-      <c r="N32" s="25" t="s">
+      <c r="O32" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>274</v>
       </c>
-      <c r="P32" s="26" t="s">
+      <c r="Q32" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="17">
+    <row r="33" spans="1:17" ht="17">
       <c r="A33" s="27" t="s">
         <v>45</v>
       </c>
@@ -3635,38 +3746,41 @@
         <v>41</v>
       </c>
       <c r="F33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G33" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="7" t="s">
+      <c r="J33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="J33" s="10">
+      <c r="K33" s="10">
         <v>74</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>27</v>
       </c>
-      <c r="L33" s="10">
+      <c r="M33" s="10">
         <v>74</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>27</v>
       </c>
-      <c r="N33" s="18"/>
-      <c r="O33" t="s">
+      <c r="O33" s="18"/>
+      <c r="P33" t="s">
         <v>275</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="409.6">
+    <row r="34" spans="1:17" ht="409.6">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
@@ -3683,40 +3797,43 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>194</v>
       </c>
-      <c r="J34" s="10">
+      <c r="K34" s="10">
         <v>837</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>243</v>
       </c>
-      <c r="L34" s="10">
+      <c r="M34" s="10">
         <v>837</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>243</v>
       </c>
-      <c r="N34" s="25" t="s">
+      <c r="O34" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>275</v>
       </c>
-      <c r="P34" s="2" t="s">
+      <c r="Q34" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="359">
+    <row r="35" spans="1:17" ht="359">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -3733,40 +3850,43 @@
         <v>41</v>
       </c>
       <c r="F35" t="s">
+        <v>316</v>
+      </c>
+      <c r="G35" t="s">
         <v>100</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>194</v>
       </c>
-      <c r="J35" s="10">
+      <c r="K35" s="10">
         <v>773</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>201</v>
       </c>
-      <c r="L35" s="10">
+      <c r="M35" s="10">
         <v>773</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>201</v>
       </c>
-      <c r="N35" s="25" t="s">
+      <c r="O35" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>275</v>
       </c>
-      <c r="P35" s="2" t="s">
+      <c r="Q35" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="409.6">
+    <row r="36" spans="1:17" ht="409.6">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -3783,40 +3903,43 @@
         <v>41</v>
       </c>
       <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
         <v>126</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="J36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="J36" s="10">
+      <c r="K36" s="10">
         <v>4209</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>1371</v>
       </c>
-      <c r="L36" s="10">
+      <c r="M36" s="10">
         <v>4209</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1371</v>
       </c>
-      <c r="N36" s="25" t="s">
+      <c r="O36" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>275</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="409.6">
+    <row r="37" spans="1:17" ht="409.6">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -3833,40 +3956,43 @@
         <v>41</v>
       </c>
       <c r="F37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G37" t="s">
         <v>126</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="J37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="J37" s="10">
+      <c r="K37" s="10">
         <v>1655</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>582</v>
       </c>
-      <c r="L37" s="10">
+      <c r="M37" s="10">
         <v>1655</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>582</v>
       </c>
-      <c r="N37" s="25" t="s">
+      <c r="O37" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>275</v>
       </c>
-      <c r="P37" s="2" t="s">
+      <c r="Q37" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="281">
+    <row r="38" spans="1:17" ht="281">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -3883,38 +4009,41 @@
         <v>41</v>
       </c>
       <c r="F38" t="s">
+        <v>315</v>
+      </c>
+      <c r="G38" t="s">
         <v>126</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="10">
+      <c r="J38" s="14"/>
+      <c r="K38" s="10">
         <v>463</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>108</v>
       </c>
-      <c r="L38" s="10">
+      <c r="M38" s="10">
         <v>463</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>108</v>
       </c>
-      <c r="N38" s="25" t="s">
+      <c r="O38" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>275</v>
       </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="17">
+    <row r="39" spans="1:17" ht="17">
       <c r="A39" s="28" t="s">
         <v>136</v>
       </c>
@@ -3931,35 +4060,38 @@
         <v>41</v>
       </c>
       <c r="F39" t="s">
+        <v>315</v>
+      </c>
+      <c r="G39" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H39" s="4">
+      <c r="I39" s="4">
         <v>0.15</v>
       </c>
-      <c r="J39" s="10">
+      <c r="K39" s="10">
         <v>83</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>12</v>
       </c>
-      <c r="L39" s="10">
+      <c r="M39" s="10">
         <v>83</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>12</v>
       </c>
-      <c r="N39" s="18"/>
-      <c r="O39" t="s">
+      <c r="O39" s="18"/>
+      <c r="P39" t="s">
         <v>275</v>
       </c>
-      <c r="P39" s="6" t="s">
+      <c r="Q39" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="17">
+    <row r="40" spans="1:17" ht="17">
       <c r="A40" s="28" t="s">
         <v>53</v>
       </c>
@@ -3976,35 +4108,38 @@
         <v>41</v>
       </c>
       <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <v>301</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>49</v>
       </c>
-      <c r="L40" s="10">
+      <c r="M40" s="10">
         <v>301</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>49</v>
       </c>
-      <c r="N40" s="18"/>
-      <c r="O40" t="s">
+      <c r="O40" s="18"/>
+      <c r="P40" t="s">
         <v>275</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:17">
       <c r="A41" s="16" t="s">
         <v>200</v>
       </c>
@@ -4017,37 +4152,40 @@
         <v>151</v>
       </c>
       <c r="F41" t="s">
+        <v>321</v>
+      </c>
+      <c r="G41" t="s">
         <v>126</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="H41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>152</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>201</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <v>266</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>140</v>
       </c>
-      <c r="L41" s="10">
+      <c r="M41" s="10">
         <v>266</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>140</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="O41" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:17">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
@@ -4058,88 +4196,88 @@
       <c r="E42" t="s">
         <v>151</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="5" t="s">
+      <c r="H42" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>203</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>187</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <v>34</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>11</v>
       </c>
-      <c r="L42" s="10">
+      <c r="M42" s="10">
         <v>34</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="O42" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>259</v>
       </c>
       <c r="E43" t="s">
         <v>151</v>
       </c>
-      <c r="I43" s="7" t="s">
+      <c r="J43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="N43" s="29" t="s">
+      <c r="K43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="O43" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:17">
       <c r="A44" t="s">
         <v>260</v>
       </c>
       <c r="E44" t="s">
         <v>262</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="O44" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="O44" t="s">
+      <c r="P44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:17">
       <c r="A45" t="s">
         <v>261</v>
       </c>
       <c r="E45" t="s">
         <v>29</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>298</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="O45" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:17">
       <c r="A46" t="s">
         <v>265</v>
       </c>
@@ -4155,20 +4293,23 @@
       <c r="E46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H46" s="4">
+      <c r="F46" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
-      <c r="N46" s="30" t="s">
+      <c r="O46" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>275</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>270</v>
       </c>
@@ -4184,116 +4325,120 @@
       <c r="E47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H47" t="s">
+      <c r="F47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" t="s">
         <v>299</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="O47" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:17">
       <c r="E48" s="2"/>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="18"/>
-    </row>
-    <row r="50" spans="14:14">
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="14:14">
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="14:14">
-      <c r="N52" s="18"/>
-    </row>
-    <row r="53" spans="14:14">
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="14:14">
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="14:14">
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="14:14" ht="18">
-      <c r="N56" s="24"/>
-    </row>
-    <row r="57" spans="14:14">
-      <c r="N57" s="18"/>
-    </row>
-    <row r="58" spans="14:14">
-      <c r="N58" s="18"/>
-    </row>
-    <row r="59" spans="14:14">
-      <c r="N59" s="18"/>
-    </row>
-    <row r="60" spans="14:14" ht="18">
-      <c r="N60" s="24"/>
-    </row>
-    <row r="61" spans="14:14">
-      <c r="N61" s="18"/>
-    </row>
-    <row r="62" spans="14:14">
-      <c r="N62" s="18"/>
-    </row>
-    <row r="63" spans="14:14">
-      <c r="N63" s="18"/>
-    </row>
-    <row r="64" spans="14:14">
-      <c r="N64" s="18"/>
-    </row>
-    <row r="65" spans="14:14">
-      <c r="N65" s="18"/>
-    </row>
-    <row r="66" spans="14:14">
-      <c r="N66" s="18"/>
-    </row>
-    <row r="67" spans="14:14">
-      <c r="N67" s="18"/>
-    </row>
-    <row r="68" spans="14:14">
-      <c r="N68" s="18"/>
-    </row>
-    <row r="69" spans="14:14">
-      <c r="N69" s="18"/>
-    </row>
-    <row r="70" spans="14:14">
-      <c r="N70" s="18"/>
-    </row>
-    <row r="71" spans="14:14">
-      <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="14:14" ht="18">
-      <c r="N72" s="24"/>
-    </row>
-    <row r="73" spans="14:14">
-      <c r="N73" s="18"/>
-    </row>
-    <row r="74" spans="14:14">
-      <c r="N74" s="18"/>
-    </row>
-    <row r="75" spans="14:14">
-      <c r="N75" s="18"/>
+      <c r="F48" s="2"/>
+      <c r="O48" s="18"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="18"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="18"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="18"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="18"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="18"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="18"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="18"/>
+    </row>
+    <row r="56" spans="15:15" ht="18">
+      <c r="O56" s="24"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="18"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="18"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="18"/>
+    </row>
+    <row r="60" spans="15:15" ht="18">
+      <c r="O60" s="24"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="18"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="18"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="18"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="18"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="18"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="18"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="18"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="18"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="18"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="18"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="18"/>
+    </row>
+    <row r="72" spans="15:15" ht="18">
+      <c r="O72" s="24"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="18"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="18"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D2:D4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" display="https://doi.org/10.1093/jee/82.1.220" xr:uid="{E591DF9D-60BE-FE48-BFAD-151965ACCF14}"/>
-    <hyperlink ref="I10" r:id="rId2" display="https://doi.org/10.1300/J301v01n04_02" xr:uid="{3AED2685-5CF9-974A-B828-75210E443BD6}"/>
-    <hyperlink ref="I13" r:id="rId3" display="https://doi-org.ezproxy.library.ubc.ca/10.1111/j.1755-0238.2003.tb00229.x" xr:uid="{310DBD8D-36A1-0347-89A0-5570ADDEDA16}"/>
-    <hyperlink ref="I15" r:id="rId4" display="https://www.cabi.org/isc/abstract/19811377819" xr:uid="{BA9E1FFF-D36D-AC41-AF92-EFE6E28B6D38}"/>
-    <hyperlink ref="I19" r:id="rId5" xr:uid="{7FFAC965-634B-DA44-9BFA-12D247D4D4AF}"/>
-    <hyperlink ref="I30" r:id="rId6" xr:uid="{8B9B6E40-3E97-F144-82E2-6843B71E9A1E}"/>
-    <hyperlink ref="I37" r:id="rId7" location="references" xr:uid="{32265DFA-8D30-DB4D-88F1-91C1A413D4B1}"/>
-    <hyperlink ref="I33" r:id="rId8" xr:uid="{FB907D97-2A11-7B44-8615-00F4F154E53A}"/>
-    <hyperlink ref="I28" r:id="rId9" xr:uid="{DA24553B-3155-5242-B5D7-99A6100CD409}"/>
-    <hyperlink ref="I26" r:id="rId10" xr:uid="{6C7BCB63-A467-7945-8E15-164576235B04}"/>
+    <hyperlink ref="J7" r:id="rId1" display="https://doi.org/10.1093/jee/82.1.220" xr:uid="{E591DF9D-60BE-FE48-BFAD-151965ACCF14}"/>
+    <hyperlink ref="J10" r:id="rId2" display="https://doi.org/10.1300/J301v01n04_02" xr:uid="{3AED2685-5CF9-974A-B828-75210E443BD6}"/>
+    <hyperlink ref="J13" r:id="rId3" display="https://doi-org.ezproxy.library.ubc.ca/10.1111/j.1755-0238.2003.tb00229.x" xr:uid="{310DBD8D-36A1-0347-89A0-5570ADDEDA16}"/>
+    <hyperlink ref="J15" r:id="rId4" display="https://www.cabi.org/isc/abstract/19811377819" xr:uid="{BA9E1FFF-D36D-AC41-AF92-EFE6E28B6D38}"/>
+    <hyperlink ref="J19" r:id="rId5" xr:uid="{7FFAC965-634B-DA44-9BFA-12D247D4D4AF}"/>
+    <hyperlink ref="J30" r:id="rId6" xr:uid="{8B9B6E40-3E97-F144-82E2-6843B71E9A1E}"/>
+    <hyperlink ref="J37" r:id="rId7" location="references" xr:uid="{32265DFA-8D30-DB4D-88F1-91C1A413D4B1}"/>
+    <hyperlink ref="J33" r:id="rId8" xr:uid="{FB907D97-2A11-7B44-8615-00F4F154E53A}"/>
+    <hyperlink ref="J28" r:id="rId9" xr:uid="{DA24553B-3155-5242-B5D7-99A6100CD409}"/>
+    <hyperlink ref="J26" r:id="rId10" xr:uid="{6C7BCB63-A467-7945-8E15-164576235B04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Wine_grape_disease.xlsx
+++ b/data/Wine_grape_disease.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darwinsodhi/Documents/GitHub/Wine-Grape-Disease/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B232D9F-B14E-E940-AAD9-8FC769A8528E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33CB3ED-B12E-4D43-887D-19FD051C26C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26200" yWindow="460" windowWidth="28420" windowHeight="19900" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
+    <workbookView xWindow="0" yWindow="1160" windowWidth="25600" windowHeight="14760" xr2:uid="{D9A28D87-567C-8C4B-BA51-00C05DE645E6}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="325">
   <si>
     <t>Genus</t>
   </si>
@@ -1638,6 +1638,12 @@
   </si>
   <si>
     <t>Australia or South America</t>
+  </si>
+  <si>
+    <t>76% yield loss</t>
+  </si>
+  <si>
+    <t>Mealybugs are phloem feeders. As they feed, they produce a sugary excretion (honeydew) that supports the growth of sooty mold.severe infestations have also reduced vine growth and resulted in defoliation, bunch rots and even spur and cane death. 13% yield loss</t>
   </si>
 </sst>
 </file>
@@ -1850,10 +1856,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2169,289 +2175,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12784771-90DA-B749-9BCD-241E7235B222}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="126" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="70.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="68.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="230.33203125" customWidth="1"/>
-    <col min="10" max="10" width="255.6640625" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="213.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="69" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31" customWidth="1"/>
+    <col min="16" max="16" width="126" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>314</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>204</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>207</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>209</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>207</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>226</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>273</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="356" customHeight="1">
+    <row r="2" spans="1:18" ht="356" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>93</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>170</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>290</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>150</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>162</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>114</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>108</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>171</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>172</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>26</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>162</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>114</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>108</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>93</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>250</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>162</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>114</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="409.6">
+    <row r="5" spans="1:18" ht="409.6">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>145</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>106</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>309</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="K5" s="17">
+      <c r="L5" s="17">
         <v>1190</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>228</v>
       </c>
-      <c r="M5" s="17">
+      <c r="N5" s="17">
         <v>1190</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>228</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="P5" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>275</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>119</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="J6" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2462,925 +2485,985 @@
       <c r="N6">
         <v>1</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
         <v>251</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>274</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="187">
+    <row r="7" spans="1:18" ht="187">
       <c r="A7" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>317</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>120</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>310</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>461</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>52</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>461</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>52</v>
       </c>
-      <c r="O7" s="23" t="s">
+      <c r="P7" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>275</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="238">
+    <row r="8" spans="1:18" ht="238">
       <c r="A8" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="G8" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>166</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>39</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>166</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>39</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="P8" s="23" t="s">
         <v>257</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>275</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="119">
+    <row r="9" spans="1:18" ht="119">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>315</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="K9" s="10">
+      <c r="L9" s="10">
         <v>200</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>36</v>
       </c>
-      <c r="M9" s="10">
+      <c r="N9" s="10">
         <v>200</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>36</v>
       </c>
-      <c r="O9" s="23" t="s">
+      <c r="P9" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>275</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="10">
+      <c r="L10" s="10">
         <v>140</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>67</v>
       </c>
-      <c r="M10" s="10">
+      <c r="N10" s="10">
         <v>140</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>67</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>251</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>274</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="153">
+    <row r="11" spans="1:18" ht="136">
       <c r="A11" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="E11" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>29</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K11" s="10">
+      <c r="L11" s="10">
         <v>22</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>12</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>27</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>19</v>
       </c>
-      <c r="O11" s="23" t="s">
+      <c r="P11" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="409.6">
+    <row r="12" spans="1:18" ht="409.6">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>316</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>103</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>104</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="K12" s="10">
+      <c r="L12" s="10">
         <v>764</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>428</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>805</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>470</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="P12" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="187">
+    <row r="13" spans="1:18" ht="187">
       <c r="A13" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>107</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>93</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="10">
+      <c r="L13" s="10">
         <v>211</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>83</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>530</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>299</v>
       </c>
-      <c r="O13" s="23" t="s">
+      <c r="P13" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="409.6">
+    <row r="14" spans="1:18" ht="404">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="E14" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>113</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>99</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>164</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="K14" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="K14" s="10">
+      <c r="L14" s="10">
         <v>67</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>25</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>78</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>25</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="P14" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>319</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>110</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="K15" s="10">
+      <c r="L15" s="10">
         <v>17</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7</v>
       </c>
-      <c r="M15" s="10">
+      <c r="N15" s="10">
         <v>17</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>7</v>
       </c>
-      <c r="O15" s="26" t="s">
+      <c r="P15" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" t="s">
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>315</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>101</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>102</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="J16" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>167</v>
       </c>
-      <c r="K16" s="10">
+      <c r="L16" s="10">
         <v>442</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>160</v>
       </c>
-      <c r="M16" s="10">
+      <c r="N16" s="10">
         <v>442</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>160</v>
       </c>
-      <c r="O16" s="26" t="s">
+      <c r="P16" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="51">
+    <row r="17" spans="1:18" ht="34">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" t="s">
         <v>12</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>316</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="J17" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>168</v>
       </c>
-      <c r="K17" s="10">
+      <c r="L17" s="10">
         <v>7338</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>943</v>
       </c>
-      <c r="M17" s="10">
+      <c r="N17" s="10">
         <v>7338</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>943</v>
       </c>
-      <c r="O17" s="20" t="s">
+      <c r="P17" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="409.6">
+    <row r="18" spans="1:18" ht="409.6">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>217</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>316</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>109</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="J18" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="K18" s="10">
+      <c r="L18" s="10">
         <v>3060</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>958</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3160</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1134</v>
       </c>
-      <c r="O18" s="18"/>
-      <c r="P18" t="s">
+      <c r="P18" s="18"/>
+      <c r="Q18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="127">
+    <row r="19" spans="1:18" ht="127">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>315</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>113</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>114</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K19" s="10">
+      <c r="L19" s="10">
         <v>4</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0</v>
       </c>
-      <c r="M19" s="10">
+      <c r="N19" s="10">
         <v>4</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0</v>
       </c>
-      <c r="O19" s="25" t="s">
+      <c r="P19" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="P19" t="s">
+      <c r="Q19" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="57">
+    <row r="20" spans="1:18" ht="57">
       <c r="A20" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>29</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>315</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>115</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>114</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>176</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="10">
+      <c r="L20" s="10">
         <v>2</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>1</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>1</v>
       </c>
-      <c r="O20" s="25" t="s">
+      <c r="P20" s="25" t="s">
         <v>230</v>
       </c>
-      <c r="P20" t="s">
+      <c r="Q20" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="113">
+    <row r="21" spans="1:18" ht="113">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
+        <v>305</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>29</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>315</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>94</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>93</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>305</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="10">
+      <c r="L21" s="10">
         <v>55</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>34</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>64</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>35</v>
       </c>
-      <c r="O21" s="25" t="s">
+      <c r="P21" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="P21" t="s">
+      <c r="Q21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="57">
+    <row r="22" spans="1:18" ht="57">
       <c r="A22" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>29</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>116</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>93</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>306</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>181</v>
       </c>
-      <c r="K22" s="10">
+      <c r="L22" s="10">
         <v>70</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>12</v>
       </c>
-      <c r="M22" s="10">
+      <c r="N22" s="10">
         <v>70</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>12</v>
       </c>
-      <c r="O22" s="25" t="s">
+      <c r="P22" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="153">
+    <row r="23" spans="1:18" ht="153">
       <c r="A23" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>100</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>93</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>304</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K23" s="10">
+      <c r="L23" s="10">
         <v>8475</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>3858</v>
       </c>
-      <c r="M23" s="10">
+      <c r="N23" s="10">
         <v>8583</v>
       </c>
-      <c r="N23" s="10">
+      <c r="O23" s="10">
         <v>4123</v>
       </c>
-      <c r="O23" s="18"/>
-      <c r="P23" t="s">
+      <c r="P23" s="18"/>
+      <c r="Q23" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="393">
+    <row r="24" spans="1:18" ht="393">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
+        <v>297</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="E24" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>315</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>117</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>114</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>297</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="10">
+      <c r="L24" s="10">
         <v>202</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>69</v>
       </c>
-      <c r="M24" s="10">
+      <c r="N24" s="10">
         <v>375</v>
       </c>
-      <c r="N24" s="10">
+      <c r="O24" s="10">
         <v>128</v>
       </c>
-      <c r="O24" s="18"/>
-      <c r="P24" t="s">
+      <c r="P24" s="18"/>
+      <c r="Q24" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="29">
+    <row r="25" spans="1:18" ht="29">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>29</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>100</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>93</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="J25" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>183</v>
       </c>
-      <c r="K25" s="10">
+      <c r="L25" s="10">
         <v>103</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>63</v>
       </c>
-      <c r="M25" s="10">
+      <c r="N25" s="10">
         <v>103</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>63</v>
       </c>
-      <c r="O25" s="25" t="s">
+      <c r="P25" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="34">
+    <row r="26" spans="1:18" ht="34">
       <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
@@ -3388,399 +3471,423 @@
         <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>29</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>100</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="J26" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="10">
+      <c r="L26" s="10">
         <v>244</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>172</v>
       </c>
-      <c r="M26" s="10">
+      <c r="N26" s="10">
         <v>250</v>
       </c>
-      <c r="N26" s="10">
+      <c r="O26" s="10">
         <v>175</v>
       </c>
-      <c r="O26" s="25" t="s">
+      <c r="P26" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="P26" t="s">
+      <c r="Q26" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="221">
+    <row r="27" spans="1:18" ht="221">
       <c r="A27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="E27" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>316</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>100</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>93</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="J27" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>186</v>
       </c>
-      <c r="K27" s="10">
+      <c r="L27" s="10">
         <v>113</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>47</v>
       </c>
-      <c r="M27" s="10">
+      <c r="N27" s="10">
         <v>137</v>
       </c>
-      <c r="N27" s="10">
+      <c r="O27" s="10">
         <v>63</v>
       </c>
-      <c r="O27" s="25" t="s">
+      <c r="P27" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="P27" t="s">
+      <c r="Q27" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="357">
+    <row r="28" spans="1:18" ht="357">
       <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="E28" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>29</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>105</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>93</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>303</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K28" s="10">
+      <c r="L28" s="10">
         <v>270</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>128</v>
       </c>
-      <c r="M28" s="10">
+      <c r="N28" s="10">
         <v>333</v>
       </c>
-      <c r="N28" s="10">
+      <c r="O28" s="10">
         <v>147</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" t="s">
+      <c r="P28" s="18"/>
+      <c r="Q28" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="255">
+    <row r="29" spans="1:18" ht="255">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>29</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>315</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>118</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>93</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="J29" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="10">
+      <c r="L29" s="10">
         <v>9</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2</v>
       </c>
-      <c r="M29" s="10">
+      <c r="N29" s="10">
         <v>13</v>
       </c>
-      <c r="N29" s="10">
+      <c r="O29" s="10">
         <v>4</v>
       </c>
-      <c r="O29" s="25" t="s">
+      <c r="P29" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="P29" t="s">
+      <c r="Q29" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="155">
+    <row r="30" spans="1:18" ht="155">
       <c r="A30" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
+        <v>189</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="E30" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>41</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>316</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>189</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K30" s="10">
+      <c r="L30" s="10">
         <v>188</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>64</v>
       </c>
-      <c r="M30" s="10">
+      <c r="N30" s="10">
         <v>188</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>64</v>
       </c>
-      <c r="O30" s="25" t="s">
+      <c r="P30" s="25" t="s">
         <v>243</v>
       </c>
-      <c r="P30" t="s">
+      <c r="Q30" t="s">
         <v>275</v>
       </c>
-      <c r="Q30" s="2" t="s">
+      <c r="R30" s="2" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="17">
+    <row r="31" spans="1:18" ht="17">
       <c r="A31" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>316</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="K31" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K31" s="10">
+      <c r="L31" s="10">
         <v>227</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>47</v>
       </c>
-      <c r="M31" s="10">
+      <c r="N31" s="10">
         <v>227</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>47</v>
       </c>
-      <c r="O31" s="18"/>
-      <c r="P31" t="s">
+      <c r="P31" s="18"/>
+      <c r="Q31" t="s">
         <v>275</v>
       </c>
-      <c r="Q31" s="26" t="s">
+      <c r="R31" s="26" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="333">
+    <row r="32" spans="1:18" ht="333">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>41</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>316</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>197</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="K32" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="K32" s="10">
+      <c r="L32" s="10">
         <v>189</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>116</v>
       </c>
-      <c r="M32" s="10">
+      <c r="N32" s="10">
         <v>189</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>116</v>
       </c>
-      <c r="O32" s="25" t="s">
+      <c r="P32" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>274</v>
       </c>
-      <c r="Q32" s="26" t="s">
+      <c r="R32" s="26" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="17">
+    <row r="33" spans="1:18" ht="17">
       <c r="A33" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B33" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E33" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>41</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>316</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>100</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>195</v>
       </c>
-      <c r="J33" s="7" t="s">
+      <c r="K33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="10">
+      <c r="L33" s="10">
         <v>74</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>27</v>
       </c>
-      <c r="M33" s="10">
+      <c r="N33" s="10">
         <v>74</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>27</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" t="s">
+      <c r="P33" s="18"/>
+      <c r="Q33" t="s">
         <v>275</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="409.6">
+    <row r="34" spans="1:18" ht="409.6">
       <c r="A34" s="3" t="s">
         <v>51</v>
       </c>
@@ -3788,52 +3895,55 @@
         <v>47</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="E34" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>41</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>315</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>194</v>
       </c>
-      <c r="K34" s="10">
+      <c r="L34" s="10">
         <v>837</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>243</v>
       </c>
-      <c r="M34" s="10">
+      <c r="N34" s="10">
         <v>837</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>243</v>
       </c>
-      <c r="O34" s="25" t="s">
+      <c r="P34" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="P34" t="s">
+      <c r="Q34" t="s">
         <v>275</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="R34" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="359">
+    <row r="35" spans="1:18" ht="359">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -3841,52 +3951,55 @@
         <v>48</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>41</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>316</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>100</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I35" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>194</v>
       </c>
-      <c r="K35" s="10">
+      <c r="L35" s="10">
         <v>773</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>201</v>
       </c>
-      <c r="M35" s="10">
+      <c r="N35" s="10">
         <v>773</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>201</v>
       </c>
-      <c r="O35" s="25" t="s">
+      <c r="P35" s="25" t="s">
         <v>246</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>275</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="R35" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="409.6">
+    <row r="36" spans="1:18" ht="409.6">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -3894,52 +4007,55 @@
         <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>41</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>316</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="K36" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="10">
+      <c r="L36" s="10">
         <v>4209</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>1371</v>
       </c>
-      <c r="M36" s="10">
+      <c r="N36" s="10">
         <v>4209</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1371</v>
       </c>
-      <c r="O36" s="25" t="s">
+      <c r="P36" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>275</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="409.6">
+    <row r="37" spans="1:18" ht="409.6">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -3947,52 +4063,55 @@
         <v>50</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>41</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>315</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>126</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="K37" s="10">
+      <c r="L37" s="10">
         <v>1655</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>582</v>
       </c>
-      <c r="M37" s="10">
+      <c r="N37" s="10">
         <v>1655</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>582</v>
       </c>
-      <c r="O37" s="25" t="s">
+      <c r="P37" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>275</v>
       </c>
-      <c r="Q37" s="2" t="s">
+      <c r="R37" s="2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="281">
+    <row r="38" spans="1:18" ht="281">
       <c r="A38" s="3" t="s">
         <v>58</v>
       </c>
@@ -4000,98 +4119,104 @@
         <v>240</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="E38" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>41</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>315</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J38" s="14"/>
-      <c r="K38" s="10">
+      <c r="K38" s="14"/>
+      <c r="L38" s="10">
         <v>463</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>108</v>
       </c>
-      <c r="M38" s="10">
+      <c r="N38" s="10">
         <v>463</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>108</v>
       </c>
-      <c r="O38" s="25" t="s">
+      <c r="P38" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>275</v>
       </c>
-      <c r="Q38" s="2" t="s">
+      <c r="R38" s="2" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="17">
+    <row r="39" spans="1:18" ht="17">
       <c r="A39" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B39" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>41</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>315</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>126</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="4">
+      <c r="J39" s="4">
         <v>0.15</v>
       </c>
-      <c r="K39" s="10">
+      <c r="L39" s="10">
         <v>83</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>12</v>
       </c>
-      <c r="M39" s="10">
+      <c r="N39" s="10">
         <v>83</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>12</v>
       </c>
-      <c r="O39" s="18"/>
-      <c r="P39" t="s">
+      <c r="P39" s="18"/>
+      <c r="Q39" t="s">
         <v>275</v>
       </c>
-      <c r="Q39" s="6" t="s">
+      <c r="R39" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="17">
+    <row r="40" spans="1:18" ht="17">
       <c r="A40" s="28" t="s">
         <v>53</v>
       </c>
@@ -4099,346 +4224,364 @@
         <v>241</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="E40" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>41</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>320</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>137</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K40" s="10">
+      <c r="L40" s="10">
         <v>301</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>49</v>
       </c>
-      <c r="M40" s="10">
+      <c r="N40" s="10">
         <v>301</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>49</v>
       </c>
-      <c r="O40" s="18"/>
-      <c r="P40" t="s">
+      <c r="P40" s="18"/>
+      <c r="Q40" t="s">
         <v>275</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="R40" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:18">
       <c r="A41" s="16" t="s">
         <v>200</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="6" t="s">
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" t="s">
         <v>151</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>321</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>126</v>
       </c>
-      <c r="H41" s="6" t="s">
+      <c r="I41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>152</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>201</v>
       </c>
-      <c r="K41" s="10">
+      <c r="L41" s="10">
         <v>266</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>140</v>
       </c>
-      <c r="M41" s="10">
+      <c r="N41" s="10">
         <v>266</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>140</v>
       </c>
-      <c r="O41" s="18" t="s">
+      <c r="P41" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="P41" t="s">
+      <c r="Q41" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:18">
       <c r="A42" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" t="s">
+      <c r="E42" s="5"/>
+      <c r="F42" t="s">
         <v>151</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>126</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="I42" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>203</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>187</v>
       </c>
-      <c r="K42" s="10">
+      <c r="L42" s="10">
         <v>34</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>11</v>
       </c>
-      <c r="M42" s="10">
+      <c r="N42" s="10">
         <v>34</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>11</v>
       </c>
-      <c r="O42" s="18" t="s">
+      <c r="P42" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="P42" t="s">
+      <c r="Q42" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>259</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>151</v>
       </c>
-      <c r="J43" s="7" t="s">
+      <c r="K43" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="O43" s="29" t="s">
+      <c r="L43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="P43" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="P43" t="s">
+      <c r="Q43" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>260</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>262</v>
       </c>
-      <c r="O44" s="30" t="s">
+      <c r="P44" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="P44" t="s">
+      <c r="Q44" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>261</v>
       </c>
-      <c r="E45" t="s">
+      <c r="C45" t="s">
+        <v>298</v>
+      </c>
+      <c r="F45" t="s">
         <v>29</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>298</v>
       </c>
-      <c r="O45" s="18" t="s">
+      <c r="P45" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="P45" t="s">
+      <c r="Q45" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>265</v>
       </c>
       <c r="B46" t="s">
         <v>266</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="I46" s="4">
+      <c r="J46" s="4">
         <v>0</v>
       </c>
-      <c r="O46" s="30" t="s">
+      <c r="P46" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>275</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>270</v>
       </c>
       <c r="B47" t="s">
         <v>269</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
+        <v>299</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>299</v>
       </c>
-      <c r="O47" s="18" t="s">
+      <c r="P47" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
-      <c r="E48" s="2"/>
+    <row r="48" spans="1:18">
       <c r="F48" s="2"/>
-      <c r="O48" s="18"/>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" s="18"/>
-    </row>
-    <row r="50" spans="15:15">
-      <c r="O50" s="18"/>
-    </row>
-    <row r="51" spans="15:15">
-      <c r="O51" s="18"/>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="18"/>
-    </row>
-    <row r="53" spans="15:15">
-      <c r="O53" s="18"/>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" s="18"/>
-    </row>
-    <row r="55" spans="15:15">
-      <c r="O55" s="18"/>
-    </row>
-    <row r="56" spans="15:15" ht="18">
-      <c r="O56" s="24"/>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="18"/>
-    </row>
-    <row r="58" spans="15:15">
-      <c r="O58" s="18"/>
-    </row>
-    <row r="59" spans="15:15">
-      <c r="O59" s="18"/>
-    </row>
-    <row r="60" spans="15:15" ht="18">
-      <c r="O60" s="24"/>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" s="18"/>
-    </row>
-    <row r="62" spans="15:15">
-      <c r="O62" s="18"/>
-    </row>
-    <row r="63" spans="15:15">
-      <c r="O63" s="18"/>
-    </row>
-    <row r="64" spans="15:15">
-      <c r="O64" s="18"/>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" s="18"/>
-    </row>
-    <row r="66" spans="15:15">
-      <c r="O66" s="18"/>
-    </row>
-    <row r="67" spans="15:15">
-      <c r="O67" s="18"/>
-    </row>
-    <row r="68" spans="15:15">
-      <c r="O68" s="18"/>
-    </row>
-    <row r="69" spans="15:15">
-      <c r="O69" s="18"/>
-    </row>
-    <row r="70" spans="15:15">
-      <c r="O70" s="18"/>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" s="18"/>
-    </row>
-    <row r="72" spans="15:15" ht="18">
-      <c r="O72" s="24"/>
-    </row>
-    <row r="73" spans="15:15">
-      <c r="O73" s="18"/>
-    </row>
-    <row r="74" spans="15:15">
-      <c r="O74" s="18"/>
-    </row>
-    <row r="75" spans="15:15">
-      <c r="O75" s="18"/>
+      <c r="G48" s="2"/>
+      <c r="P48" s="18"/>
+    </row>
+    <row r="49" spans="16:16">
+      <c r="P49" s="18"/>
+    </row>
+    <row r="50" spans="16:16">
+      <c r="P50" s="18"/>
+    </row>
+    <row r="51" spans="16:16">
+      <c r="P51" s="18"/>
+    </row>
+    <row r="52" spans="16:16">
+      <c r="P52" s="18"/>
+    </row>
+    <row r="53" spans="16:16">
+      <c r="P53" s="18"/>
+    </row>
+    <row r="54" spans="16:16">
+      <c r="P54" s="18"/>
+    </row>
+    <row r="55" spans="16:16">
+      <c r="P55" s="18"/>
+    </row>
+    <row r="56" spans="16:16" ht="18">
+      <c r="P56" s="24"/>
+    </row>
+    <row r="57" spans="16:16">
+      <c r="P57" s="18"/>
+    </row>
+    <row r="58" spans="16:16">
+      <c r="P58" s="18"/>
+    </row>
+    <row r="59" spans="16:16">
+      <c r="P59" s="18"/>
+    </row>
+    <row r="60" spans="16:16" ht="18">
+      <c r="P60" s="24"/>
+    </row>
+    <row r="61" spans="16:16">
+      <c r="P61" s="18"/>
+    </row>
+    <row r="62" spans="16:16">
+      <c r="P62" s="18"/>
+    </row>
+    <row r="63" spans="16:16">
+      <c r="P63" s="18"/>
+    </row>
+    <row r="64" spans="16:16">
+      <c r="P64" s="18"/>
+    </row>
+    <row r="65" spans="16:16">
+      <c r="P65" s="18"/>
+    </row>
+    <row r="66" spans="16:16">
+      <c r="P66" s="18"/>
+    </row>
+    <row r="67" spans="16:16">
+      <c r="P67" s="18"/>
+    </row>
+    <row r="68" spans="16:16">
+      <c r="P68" s="18"/>
+    </row>
+    <row r="69" spans="16:16">
+      <c r="P69" s="18"/>
+    </row>
+    <row r="70" spans="16:16">
+      <c r="P70" s="18"/>
+    </row>
+    <row r="71" spans="16:16">
+      <c r="P71" s="18"/>
+    </row>
+    <row r="72" spans="16:16" ht="18">
+      <c r="P72" s="24"/>
+    </row>
+    <row r="73" spans="16:16">
+      <c r="P73" s="18"/>
+    </row>
+    <row r="74" spans="16:16">
+      <c r="P74" s="18"/>
+    </row>
+    <row r="75" spans="16:16">
+      <c r="P75" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J7" r:id="rId1" display="https://doi.org/10.1093/jee/82.1.220" xr:uid="{E591DF9D-60BE-FE48-BFAD-151965ACCF14}"/>
-    <hyperlink ref="J10" r:id="rId2" display="https://doi.org/10.1300/J301v01n04_02" xr:uid="{3AED2685-5CF9-974A-B828-75210E443BD6}"/>
-    <hyperlink ref="J13" r:id="rId3" display="https://doi-org.ezproxy.library.ubc.ca/10.1111/j.1755-0238.2003.tb00229.x" xr:uid="{310DBD8D-36A1-0347-89A0-5570ADDEDA16}"/>
-    <hyperlink ref="J15" r:id="rId4" display="https://www.cabi.org/isc/abstract/19811377819" xr:uid="{BA9E1FFF-D36D-AC41-AF92-EFE6E28B6D38}"/>
-    <hyperlink ref="J19" r:id="rId5" xr:uid="{7FFAC965-634B-DA44-9BFA-12D247D4D4AF}"/>
-    <hyperlink ref="J30" r:id="rId6" xr:uid="{8B9B6E40-3E97-F144-82E2-6843B71E9A1E}"/>
-    <hyperlink ref="J37" r:id="rId7" location="references" xr:uid="{32265DFA-8D30-DB4D-88F1-91C1A413D4B1}"/>
-    <hyperlink ref="J33" r:id="rId8" xr:uid="{FB907D97-2A11-7B44-8615-00F4F154E53A}"/>
-    <hyperlink ref="J28" r:id="rId9" xr:uid="{DA24553B-3155-5242-B5D7-99A6100CD409}"/>
-    <hyperlink ref="J26" r:id="rId10" xr:uid="{6C7BCB63-A467-7945-8E15-164576235B04}"/>
+    <hyperlink ref="K7" r:id="rId1" display="https://doi.org/10.1093/jee/82.1.220" xr:uid="{E591DF9D-60BE-FE48-BFAD-151965ACCF14}"/>
+    <hyperlink ref="K10" r:id="rId2" display="https://doi.org/10.1300/J301v01n04_02" xr:uid="{3AED2685-5CF9-974A-B828-75210E443BD6}"/>
+    <hyperlink ref="K13" r:id="rId3" display="https://doi-org.ezproxy.library.ubc.ca/10.1111/j.1755-0238.2003.tb00229.x" xr:uid="{310DBD8D-36A1-0347-89A0-5570ADDEDA16}"/>
+    <hyperlink ref="K15" r:id="rId4" display="https://www.cabi.org/isc/abstract/19811377819" xr:uid="{BA9E1FFF-D36D-AC41-AF92-EFE6E28B6D38}"/>
+    <hyperlink ref="K19" r:id="rId5" xr:uid="{7FFAC965-634B-DA44-9BFA-12D247D4D4AF}"/>
+    <hyperlink ref="K30" r:id="rId6" xr:uid="{8B9B6E40-3E97-F144-82E2-6843B71E9A1E}"/>
+    <hyperlink ref="K37" r:id="rId7" location="references" xr:uid="{32265DFA-8D30-DB4D-88F1-91C1A413D4B1}"/>
+    <hyperlink ref="K33" r:id="rId8" xr:uid="{FB907D97-2A11-7B44-8615-00F4F154E53A}"/>
+    <hyperlink ref="K28" r:id="rId9" xr:uid="{DA24553B-3155-5242-B5D7-99A6100CD409}"/>
+    <hyperlink ref="K26" r:id="rId10" xr:uid="{6C7BCB63-A467-7945-8E15-164576235B04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
